--- a/biology/Médecine/Hôpital_du_comté_de_Prince/Hôpital_du_comté_de_Prince.xlsx
+++ b/biology/Médecine/Hôpital_du_comté_de_Prince/Hôpital_du_comté_de_Prince.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_du_comt%C3%A9_de_Prince</t>
+          <t>Hôpital_du_comté_de_Prince</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Hôpital du comté de Prince est un hôpital de soins actifs situé à Summerside, Île-du-Prince-Édouard.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_du_comt%C3%A9_de_Prince</t>
+          <t>Hôpital_du_comté_de_Prince</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital du comté de Prince retrace son histoire au début des années 1900, alors qu'il était le premier hôpital de l'Île-du-Prince-Édouard à être situé à l'extérieur de Charlottetown. Il était à l'origine situé sur la rue St. Stephen, près du quartier central des affaires de Summerside, mais a été remplacé en 1951 par une installation située sur l'avenue Beattie. Cette installation a été remplacée en 2004 par l'installation actuelle située sur une propriété de 27 acres sur l'avenue Roy Boates à l'extrémité nord de la ville.
-L'avenue Beattie a été nommée en l'honneur de Grace Beattie, infirmière autorisée, première administratrice de l'hôpital. L'avenue Roy Boates a été nommée en l'honneur de Roy Boates, ancien directeur de la pharmacie de l'hôpital. Roy a possédé et géré une pharmacie communautaire à l'Île-du-Prince-Édouard de 1949 à 1974. Il a siégé deux fois au conseil exécutif de l'Association des pharmaciens du Canada. En 1967, il a été la première personne de l'Île-du-Prince-Édouard à recevoir le prix Robins Bowl of Hygeia pour services communautaires. En 1981, il s'est rendu en Gambie sous les auspices du CUSO (Service universitaire canadien à l'étranger) et a été pharmacien en chef en Gambie. Il a initié, supervisé et mis en place un nouveau système de médicaments. Il était responsable de deux hôpitaux, 16 centres de santé, 17 dispensaires et 54 sous-dispensaires. Il a également ouvert deux nouveaux magasins de fournitures médicales approvisionnés par le Fonds canadien de secours aux missions. Il a enseigné la pharmacologie à des étudiants en troisième année de soins infirmiers à l'hôpital Royal Victoria de Banjul, Gambie[1]. Pour ses services, il a reçu le certificat de reconnaissance par le président de la zone Afrique. Roy a reçu le Prix du service méritoire de l'Association des pharmaciens du Canada en 1987 et l'Ordre du Canada en 1990[2].
+L'avenue Beattie a été nommée en l'honneur de Grace Beattie, infirmière autorisée, première administratrice de l'hôpital. L'avenue Roy Boates a été nommée en l'honneur de Roy Boates, ancien directeur de la pharmacie de l'hôpital. Roy a possédé et géré une pharmacie communautaire à l'Île-du-Prince-Édouard de 1949 à 1974. Il a siégé deux fois au conseil exécutif de l'Association des pharmaciens du Canada. En 1967, il a été la première personne de l'Île-du-Prince-Édouard à recevoir le prix Robins Bowl of Hygeia pour services communautaires. En 1981, il s'est rendu en Gambie sous les auspices du CUSO (Service universitaire canadien à l'étranger) et a été pharmacien en chef en Gambie. Il a initié, supervisé et mis en place un nouveau système de médicaments. Il était responsable de deux hôpitaux, 16 centres de santé, 17 dispensaires et 54 sous-dispensaires. Il a également ouvert deux nouveaux magasins de fournitures médicales approvisionnés par le Fonds canadien de secours aux missions. Il a enseigné la pharmacologie à des étudiants en troisième année de soins infirmiers à l'hôpital Royal Victoria de Banjul, Gambie. Pour ses services, il a reçu le certificat de reconnaissance par le président de la zone Afrique. Roy a reçu le Prix du service méritoire de l'Association des pharmaciens du Canada en 1987 et l'Ordre du Canada en 1990.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_du_comt%C3%A9_de_Prince</t>
+          <t>Hôpital_du_comté_de_Prince</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Hôpital du comté de Prince offre les services suivants:
 chirurgie
